--- a/docs/budget/effort_committment.xlsx
+++ b/docs/budget/effort_committment.xlsx
@@ -1134,7 +1134,7 @@
       <c r="K17" s="10"/>
       <c r="L17" s="11">
         <f>SUM(E35:L37)</f>
-        <v>71.225</v>
+        <v>147.5375</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1170,7 +1170,7 @@
       <c r="G18" s="12"/>
       <c r="H18" s="13">
         <f>SUM(E35:H37)</f>
-        <v>25.4375</v>
+        <v>55.9625</v>
       </c>
       <c r="I18" s="12" t="s">
         <v>20</v>
@@ -1179,7 +1179,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="13">
         <f>SUM(I35:L37)</f>
-        <v>45.7875</v>
+        <v>91.575</v>
       </c>
       <c r="M18" s="14" t="s">
         <v>30</v>
@@ -1194,7 +1194,7 @@
       <c r="U18" s="14"/>
       <c r="V18" s="15">
         <f>SUM(M35:V37)</f>
-        <v>126.8375</v>
+        <v>258.675</v>
       </c>
       <c r="W18" s="16" t="s">
         <v>31</v>
@@ -1203,7 +1203,7 @@
       <c r="Y18" s="16"/>
       <c r="Z18" s="17">
         <f>SUM(W35:Z37)</f>
-        <v>171.05</v>
+        <v>337.1</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -1901,22 +1901,22 @@
         <v>24</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K27" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>24</v>
@@ -1927,56 +1927,56 @@
       <c r="O27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T27" s="3" t="s">
-        <v>24</v>
+      <c r="P27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z27" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="V27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W27" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z27" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50.875</v>
       </c>
       <c r="AD27" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30.2625</v>
       </c>
       <c r="AE27" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45.2625</v>
       </c>
       <c r="AF27" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>126.4</v>
       </c>
       <c r="AG27" s="1"/>
     </row>
@@ -1996,22 +1996,22 @@
         <v>24</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K28" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>24</v>
@@ -2022,56 +2022,56 @@
       <c r="O28" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T28" s="3" t="s">
-        <v>24</v>
+      <c r="P28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z28" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="V28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W28" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y28" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z28" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>55.9625</v>
       </c>
       <c r="AD28" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>20.175</v>
       </c>
       <c r="AE28" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45.2625</v>
       </c>
       <c r="AF28" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>121.4</v>
       </c>
       <c r="AG28" s="1"/>
     </row>
@@ -2091,22 +2091,22 @@
         <v>24</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>24</v>
@@ -2117,56 +2117,56 @@
       <c r="O29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="P29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T29" s="3" t="s">
-        <v>24</v>
+      <c r="P29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z29" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="V29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="W29" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y29" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z29" s="23" t="s">
+        <v>21</v>
       </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="4">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>50.875</v>
       </c>
       <c r="AD29" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>30.2625</v>
       </c>
       <c r="AE29" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>45.2625</v>
       </c>
       <c r="AF29" s="4">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>126.4</v>
       </c>
       <c r="AG29" s="1"/>
     </row>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="G35" s="4">
         <f t="shared" si="7"/>
-        <v>10.175</v>
+        <v>25.4375</v>
       </c>
       <c r="H35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="J35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="K35" s="4">
         <f t="shared" si="7"/>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="L35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="M35" s="4">
         <f t="shared" si="7"/>
@@ -2633,27 +2633,27 @@
       </c>
       <c r="P35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="Q35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="R35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="S35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="T35" s="4">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="U35" s="4">
         <f t="shared" si="7"/>
-        <v>10.175</v>
+        <v>15.2625</v>
       </c>
       <c r="V35" s="4">
         <f t="shared" si="7"/>
@@ -2757,15 +2757,15 @@
       </c>
       <c r="U36" s="4">
         <f t="shared" si="9"/>
-        <v>10.0875</v>
+        <v>30.2625</v>
       </c>
       <c r="V36" s="4">
         <f t="shared" si="9"/>
-        <v>30.2625</v>
+        <v>60.525</v>
       </c>
       <c r="W36" s="4">
         <f t="shared" si="9"/>
-        <v>10.0875</v>
+        <v>40.35</v>
       </c>
       <c r="X36" s="4">
         <f t="shared" si="9"/>
@@ -2785,19 +2785,19 @@
       </c>
       <c r="AC36" s="18">
         <f t="shared" ref="AC36:AF36" si="10">SUM(AC24:AC34)</f>
-        <v>157.7125</v>
+        <v>315.425</v>
       </c>
       <c r="AD36" s="18">
         <f t="shared" si="10"/>
-        <v>60.525</v>
+        <v>141.225</v>
       </c>
       <c r="AE36" s="18">
         <f t="shared" si="10"/>
-        <v>150.875</v>
+        <v>286.6625</v>
       </c>
       <c r="AF36" s="18">
         <f t="shared" si="10"/>
-        <v>369.1125</v>
+        <v>743.3125</v>
       </c>
       <c r="AG36" s="18" t="s">
         <v>5</v>
@@ -2889,15 +2889,15 @@
       </c>
       <c r="X37" s="4">
         <f t="shared" si="11"/>
-        <v>30.175</v>
+        <v>75.4375</v>
       </c>
       <c r="Y37" s="4">
         <f t="shared" si="11"/>
-        <v>45.2625</v>
+        <v>90.525</v>
       </c>
       <c r="Z37" s="4">
         <f t="shared" si="11"/>
-        <v>45.2625</v>
+        <v>90.525</v>
       </c>
       <c r="AA37" s="4"/>
       <c r="AB37" s="4"/>
@@ -3066,19 +3066,19 @@
       </c>
       <c r="G42" s="4">
         <f t="shared" si="12"/>
-        <v>10.175</v>
+        <v>25.4375</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="12"/>
@@ -3086,7 +3086,7 @@
       </c>
       <c r="L42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="M42" s="4">
         <f t="shared" si="12"/>
@@ -3102,47 +3102,47 @@
       </c>
       <c r="P42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="Q42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="R42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="S42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="T42" s="4">
         <f t="shared" si="12"/>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="U42" s="4">
         <f t="shared" si="12"/>
-        <v>20.2625</v>
+        <v>45.525</v>
       </c>
       <c r="V42" s="4">
         <f t="shared" si="12"/>
-        <v>30.2625</v>
+        <v>60.525</v>
       </c>
       <c r="W42" s="4">
         <f t="shared" si="12"/>
-        <v>40.2625</v>
+        <v>70.525</v>
       </c>
       <c r="X42" s="4">
         <f t="shared" si="12"/>
-        <v>40.2625</v>
+        <v>85.525</v>
       </c>
       <c r="Y42" s="4">
         <f t="shared" si="12"/>
-        <v>45.2625</v>
+        <v>90.525</v>
       </c>
       <c r="Z42" s="4">
         <f t="shared" si="12"/>
-        <v>45.2625</v>
+        <v>90.525</v>
       </c>
       <c r="AA42" s="4"/>
       <c r="AB42" s="18" t="s">
@@ -3152,7 +3152,7 @@
       <c r="AD42" s="18"/>
       <c r="AE42" s="18">
         <f>SUM(E42:Z42)</f>
-        <v>369.1125</v>
+        <v>743.3125</v>
       </c>
       <c r="AF42" s="18"/>
       <c r="AG42" s="18" t="s">
@@ -3176,17 +3176,17 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4">
         <f>SUM(G42:H42)</f>
-        <v>25.4375</v>
+        <v>55.9625</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4">
         <f>SUM(I42:J42)</f>
-        <v>30.525</v>
+        <v>61.05</v>
       </c>
       <c r="K43" s="4"/>
       <c r="L43" s="4">
         <f>SUM(K42:L42)</f>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="M43" s="4"/>
       <c r="N43" s="4">
@@ -3196,32 +3196,32 @@
       <c r="O43" s="4"/>
       <c r="P43" s="4">
         <f>SUM(O42:P42)</f>
-        <v>15.2625</v>
+        <v>30.525</v>
       </c>
       <c r="Q43" s="4"/>
       <c r="R43" s="4">
         <f>SUM(Q42:R42)</f>
-        <v>30.525</v>
+        <v>61.05</v>
       </c>
       <c r="S43" s="4"/>
       <c r="T43" s="4">
         <f>SUM(S42:T42)</f>
-        <v>30.525</v>
+        <v>61.05</v>
       </c>
       <c r="U43" s="4"/>
       <c r="V43" s="4">
         <f>SUM(U42:V42)</f>
-        <v>50.525</v>
+        <v>106.05</v>
       </c>
       <c r="W43" s="4"/>
       <c r="X43" s="4">
         <f>SUM(W42:X42)</f>
-        <v>80.525</v>
+        <v>156.05</v>
       </c>
       <c r="Y43" s="4"/>
       <c r="Z43" s="4">
         <f>SUM(Y42:Z42)</f>
-        <v>90.525</v>
+        <v>181.05</v>
       </c>
       <c r="AA43" s="4"/>
       <c r="AB43" s="18" t="s">
@@ -3231,7 +3231,7 @@
       <c r="AD43" s="18"/>
       <c r="AE43" s="18">
         <f>SUM(D43:Z43)</f>
-        <v>369.1125</v>
+        <v>743.3125</v>
       </c>
       <c r="AF43" s="4"/>
       <c r="AG43" s="18" t="s">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="C47" s="30">
         <f>AE43</f>
-        <v>369.1125</v>
+        <v>743.3125</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>54</v>
@@ -36969,19 +36969,19 @@
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:R29 S24:U27 V24:Z29">
+  <conditionalFormatting sqref="P24:Z29">
     <cfRule type="cellIs" dxfId="0" priority="39" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:R29 S24:U27 V24:Z29">
+  <conditionalFormatting sqref="P24:Z29">
     <cfRule type="cellIs" dxfId="1" priority="40" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P24:R29 S24:U27 V24:Z29">
+  <conditionalFormatting sqref="P24:Z29">
     <cfRule type="cellIs" dxfId="2" priority="41" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>

--- a/docs/budget/effort_committment.xlsx
+++ b/docs/budget/effort_committment.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Connor\Documents\GitHub\SlidingTileRep\docs\budget\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -139,9 +147,6 @@
     <t>Web Dev</t>
   </si>
   <si>
-    <t>Alvaro Alamillo Vargas Real Jimenez</t>
-  </si>
-  <si>
     <t>TL</t>
   </si>
   <si>
@@ -176,32 +181,35 @@
   </si>
   <si>
     <t>Hours, to spend on your project</t>
+  </si>
+  <si>
+    <t>Alvaro Alamillo Vargas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <b/>
-      <sz val="36.0"/>
+      <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="36.0"/>
+      <sz val="36"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -211,7 +219,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -239,7 +247,13 @@
     </fill>
   </fills>
   <borders count="6">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thick">
         <color rgb="FF008000"/>
@@ -250,6 +264,8 @@
       <top style="thick">
         <color rgb="FF008000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -258,6 +274,9 @@
       <right style="thick">
         <color rgb="FF008000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thick">
@@ -266,77 +285,77 @@
       <right style="thick">
         <color rgb="FF008000"/>
       </right>
+      <top/>
       <bottom style="thick">
         <color rgb="FF008000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="2" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="2" fontId="1" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="3" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="3" fontId="1" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="4" fontId="0" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="4" fillId="5" fontId="1" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="1" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="44">
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFFEB9C"/>
-          <bgColor rgb="FFFFEB9C"/>
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
       <font>
@@ -348,7 +367,17 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -360,34 +389,776 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
-      <border/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AQ48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="C2" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="Y3" sqref="Y3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="10.78"/>
-    <col customWidth="1" min="2" max="2" width="21.44"/>
-    <col customWidth="1" min="3" max="3" width="26.89"/>
-    <col customWidth="1" min="4" max="4" width="21.44"/>
-    <col customWidth="1" min="5" max="20" width="10.78"/>
-    <col customWidth="1" min="21" max="21" width="11.67"/>
-    <col customWidth="1" min="22" max="33" width="10.78"/>
-    <col customWidth="1" min="34" max="43" width="11.22"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="19.75" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="5" max="20" width="10.75" customWidth="1"/>
+    <col min="21" max="21" width="11.625" customWidth="1"/>
+    <col min="22" max="33" width="10.75" customWidth="1"/>
+    <col min="34" max="43" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -424,13 +1195,13 @@
       <c r="AF1" s="3"/>
       <c r="AG1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>2</v>
@@ -465,13 +1236,13 @@
       <c r="AF2" s="3"/>
       <c r="AG2" s="1"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:33" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>2</v>
@@ -508,13 +1279,13 @@
       <c r="AF3" s="3"/>
       <c r="AG3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -549,7 +1320,7 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>6</v>
@@ -590,13 +1361,13 @@
       <c r="AF5" s="3"/>
       <c r="AG5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -631,7 +1402,7 @@
       <c r="AF6" s="3"/>
       <c r="AG6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="6"/>
@@ -666,7 +1437,7 @@
       <c r="AF7" s="3"/>
       <c r="AG7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
         <v>10</v>
@@ -711,7 +1482,7 @@
       <c r="AF8" s="3"/>
       <c r="AG8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
@@ -721,7 +1492,7 @@
       <c r="E9" s="1"/>
       <c r="F9" s="3">
         <f>$C$4 * $C$5 * $C$6</f>
-        <v>5.0875</v>
+        <v>5.0875000000000004</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>14</v>
@@ -759,20 +1530,20 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="3">
-        <f t="shared" ref="F10:F11" si="1">$F$9+(C10*$C$3)</f>
+        <f t="shared" ref="F10:F11" si="0">$F$9+(C10*$C$3)</f>
         <v>10.0875</v>
       </c>
       <c r="G10" s="1" t="s">
@@ -811,20 +1582,20 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="7">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="3">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15.0875</v>
       </c>
       <c r="G11" s="1" t="s">
@@ -861,7 +1632,7 @@
       <c r="AF11" s="3"/>
       <c r="AG11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -898,7 +1669,7 @@
       <c r="AF12" s="3"/>
       <c r="AG12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -933,7 +1704,7 @@
       <c r="AF13" s="3"/>
       <c r="AG13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -974,20 +1745,20 @@
       <c r="AF14" s="3"/>
       <c r="AG14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1">
-        <v>2017.0</v>
+        <v>2017</v>
       </c>
       <c r="E15" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="F15" s="1">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="G15" s="8">
         <f>DATE($D$15,$E$15,$F$15)</f>
@@ -1020,7 +1791,7 @@
       <c r="AF15" s="3"/>
       <c r="AG15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1055,7 +1826,7 @@
       <c r="AF16" s="3"/>
       <c r="AG16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1071,7 +1842,7 @@
       <c r="K17" s="9"/>
       <c r="L17" s="10">
         <f>SUM(E35:L37)</f>
-        <v>677</v>
+        <v>676.99999999999989</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1095,7 +1866,7 @@
       <c r="AF17" s="3"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1131,7 +1902,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="14">
         <f>SUM(M35:V37)</f>
-        <v>942.175</v>
+        <v>942.17499999999995</v>
       </c>
       <c r="W18" s="15" t="s">
         <v>31</v>
@@ -1150,7 +1921,7 @@
       <c r="AF18" s="3"/>
       <c r="AG18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
         <v>32</v>
@@ -1189,7 +1960,7 @@
       <c r="AF19" s="3"/>
       <c r="AG19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1270,7 +2041,7 @@
       <c r="AF20" s="3"/>
       <c r="AG20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="2" t="s">
@@ -1280,70 +2051,70 @@
         <v>1</v>
       </c>
       <c r="E21" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="I21" s="1">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J21" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="K21" s="1">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L21" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="M21" s="1">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="N21" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="O21" s="1">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="P21" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="1">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="R21" s="1">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="S21" s="1">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="T21" s="1">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="U21" s="1">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="V21" s="1">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="W21" s="1">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="X21" s="1">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="Y21" s="1">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="Z21" s="1">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
@@ -1353,7 +2124,7 @@
       <c r="AF21" s="3"/>
       <c r="AG21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="17"/>
@@ -1423,7 +2194,7 @@
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1431,91 +2202,91 @@
         <v>36</v>
       </c>
       <c r="E23" s="8">
-        <f t="shared" ref="E23:Z23" si="2">$G$15 +($C$2  * (E$21-1))</f>
+        <f t="shared" ref="E23:Z23" si="1">$G$15 +($C$2  * (E$21-1))</f>
         <v>43031</v>
       </c>
       <c r="F23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43038</v>
       </c>
       <c r="G23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43045</v>
       </c>
       <c r="H23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43052</v>
       </c>
       <c r="I23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43059</v>
       </c>
       <c r="J23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43066</v>
       </c>
       <c r="K23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43073</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43080</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43087</v>
       </c>
       <c r="N23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43094</v>
       </c>
       <c r="O23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43101</v>
       </c>
       <c r="P23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43108</v>
       </c>
       <c r="Q23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43115</v>
       </c>
       <c r="R23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43122</v>
       </c>
       <c r="S23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43129</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43136</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43143</v>
       </c>
       <c r="V23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43150</v>
       </c>
       <c r="W23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43157</v>
       </c>
       <c r="X23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43164</v>
       </c>
       <c r="Y23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43171</v>
       </c>
       <c r="Z23" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43178</v>
       </c>
       <c r="AA23" s="1"/>
@@ -1547,7 +2318,7 @@
       <c r="AP23" s="1"/>
       <c r="AQ23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
@@ -1625,20 +2396,20 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="3">
-        <f t="shared" ref="AC24:AC33" si="3">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
+        <f t="shared" ref="AC24:AC33" si="2">COUNTIFS($E24:$AB24,$I$9) * $F$9</f>
         <v>50.875</v>
       </c>
       <c r="AD24" s="3">
-        <f t="shared" ref="AD24:AD33" si="4">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
-        <v>70.6125</v>
+        <f t="shared" ref="AD24:AD33" si="3">COUNTIFS($E24:$AB24,$I$10) * $F$10</f>
+        <v>70.612499999999997</v>
       </c>
       <c r="AE24" s="3">
-        <f t="shared" ref="AE24:AE33" si="5">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
+        <f t="shared" ref="AE24:AE33" si="4">COUNTIFS($E24:$AB24,$I$11) * $F$11</f>
         <v>75.4375</v>
       </c>
       <c r="AF24" s="3">
-        <f t="shared" ref="AF24:AF33" si="6">SUM(AC24:AE24)</f>
-        <v>196.925</v>
+        <f t="shared" ref="AF24:AF33" si="5">SUM(AC24:AE24)</f>
+        <v>196.92500000000001</v>
       </c>
       <c r="AG24" s="1"/>
       <c r="AH24" s="1"/>
@@ -1652,7 +2423,7 @@
       <c r="AP24" s="1"/>
       <c r="AQ24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2" t="s">
@@ -1730,20 +2501,20 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="3">
+        <f t="shared" si="2"/>
+        <v>50.875</v>
+      </c>
+      <c r="AD25" s="3">
         <f t="shared" si="3"/>
-        <v>50.875</v>
-      </c>
-      <c r="AD25" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE25" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE25" s="3">
+        <v>45.262500000000003</v>
+      </c>
+      <c r="AF25" s="3">
         <f t="shared" si="5"/>
-        <v>45.2625</v>
-      </c>
-      <c r="AF25" s="3">
-        <f t="shared" si="6"/>
-        <v>186.925</v>
+        <v>186.92500000000001</v>
       </c>
       <c r="AG25" s="1"/>
       <c r="AH25" s="1"/>
@@ -1757,14 +2528,14 @@
       <c r="AP25" s="1"/>
       <c r="AQ25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>13</v>
@@ -1835,28 +2606,28 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="3">
+        <f t="shared" si="2"/>
+        <v>35.612500000000004</v>
+      </c>
+      <c r="AD26" s="3">
         <f t="shared" si="3"/>
-        <v>35.6125</v>
-      </c>
-      <c r="AD26" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE26" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE26" s="3">
+        <v>45.262500000000003</v>
+      </c>
+      <c r="AF26" s="3">
         <f t="shared" si="5"/>
-        <v>45.2625</v>
-      </c>
-      <c r="AF26" s="3">
-        <f t="shared" si="6"/>
-        <v>171.6625</v>
+        <v>171.66250000000002</v>
       </c>
       <c r="AG26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
@@ -1930,28 +2701,28 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="3">
+        <f t="shared" si="2"/>
+        <v>45.787500000000001</v>
+      </c>
+      <c r="AD27" s="3">
         <f t="shared" si="3"/>
-        <v>45.7875</v>
-      </c>
-      <c r="AD27" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE27" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE27" s="3">
+        <v>60.35</v>
+      </c>
+      <c r="AF27" s="3">
         <f t="shared" si="5"/>
-        <v>60.35</v>
-      </c>
-      <c r="AF27" s="3">
-        <f t="shared" si="6"/>
-        <v>196.925</v>
+        <v>196.92500000000001</v>
       </c>
       <c r="AG27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
@@ -2025,31 +2796,31 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="3">
+        <f t="shared" si="2"/>
+        <v>35.612500000000004</v>
+      </c>
+      <c r="AD28" s="3">
         <f t="shared" si="3"/>
-        <v>35.6125</v>
-      </c>
-      <c r="AD28" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE28" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE28" s="3">
+        <v>45.262500000000003</v>
+      </c>
+      <c r="AF28" s="3">
         <f t="shared" si="5"/>
-        <v>45.2625</v>
-      </c>
-      <c r="AF28" s="3">
-        <f t="shared" si="6"/>
-        <v>171.6625</v>
+        <v>171.66250000000002</v>
       </c>
       <c r="AG28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:43" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E29" s="19" t="s">
         <v>13</v>
@@ -2120,28 +2891,28 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="3">
+        <f t="shared" si="2"/>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="AD29" s="3">
         <f t="shared" si="3"/>
-        <v>40.7</v>
-      </c>
-      <c r="AD29" s="3">
+        <v>80.7</v>
+      </c>
+      <c r="AE29" s="3">
         <f t="shared" si="4"/>
-        <v>80.7</v>
-      </c>
-      <c r="AE29" s="3">
+        <v>90.525000000000006</v>
+      </c>
+      <c r="AF29" s="3">
         <f t="shared" si="5"/>
-        <v>90.525</v>
-      </c>
-      <c r="AF29" s="3">
-        <f t="shared" si="6"/>
-        <v>211.925</v>
+        <v>211.92500000000001</v>
       </c>
       <c r="AG29" s="1"/>
     </row>
-    <row r="30" hidden="1">
+    <row r="30" spans="1:43" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
@@ -2213,28 +2984,28 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="3">
+        <f t="shared" si="2"/>
+        <v>35.612500000000004</v>
+      </c>
+      <c r="AD30" s="3">
         <f t="shared" si="3"/>
-        <v>35.6125</v>
-      </c>
-      <c r="AD30" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE30" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE30" s="3">
+        <v>45.262500000000003</v>
+      </c>
+      <c r="AF30" s="3">
         <f t="shared" si="5"/>
-        <v>45.2625</v>
-      </c>
-      <c r="AF30" s="3">
-        <f t="shared" si="6"/>
-        <v>171.6625</v>
+        <v>171.66250000000002</v>
       </c>
       <c r="AG30" s="1"/>
     </row>
-    <row r="31" hidden="1">
+    <row r="31" spans="1:43" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
@@ -2306,28 +3077,28 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="3">
+        <f t="shared" si="2"/>
+        <v>35.612500000000004</v>
+      </c>
+      <c r="AD31" s="3">
         <f t="shared" si="3"/>
-        <v>35.6125</v>
-      </c>
-      <c r="AD31" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE31" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE31" s="3">
+        <v>45.262500000000003</v>
+      </c>
+      <c r="AF31" s="3">
         <f t="shared" si="5"/>
-        <v>45.2625</v>
-      </c>
-      <c r="AF31" s="3">
-        <f t="shared" si="6"/>
-        <v>171.6625</v>
+        <v>171.66250000000002</v>
       </c>
       <c r="AG31" s="1"/>
     </row>
-    <row r="32" hidden="1">
+    <row r="32" spans="1:43" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
@@ -2399,28 +3170,28 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="3">
+        <f t="shared" si="2"/>
+        <v>35.612500000000004</v>
+      </c>
+      <c r="AD32" s="3">
         <f t="shared" si="3"/>
-        <v>35.6125</v>
-      </c>
-      <c r="AD32" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE32" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE32" s="3">
+        <v>45.262500000000003</v>
+      </c>
+      <c r="AF32" s="3">
         <f t="shared" si="5"/>
-        <v>45.2625</v>
-      </c>
-      <c r="AF32" s="3">
-        <f t="shared" si="6"/>
-        <v>171.6625</v>
+        <v>171.66250000000002</v>
       </c>
       <c r="AG32" s="1"/>
     </row>
-    <row r="33" hidden="1">
+    <row r="33" spans="1:33" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
@@ -2492,24 +3263,24 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="3">
+        <f t="shared" si="2"/>
+        <v>35.612500000000004</v>
+      </c>
+      <c r="AD33" s="3">
         <f t="shared" si="3"/>
-        <v>35.6125</v>
-      </c>
-      <c r="AD33" s="3">
+        <v>90.787500000000009</v>
+      </c>
+      <c r="AE33" s="3">
         <f t="shared" si="4"/>
-        <v>90.7875</v>
-      </c>
-      <c r="AE33" s="3">
+        <v>45.262500000000003</v>
+      </c>
+      <c r="AF33" s="3">
         <f t="shared" si="5"/>
-        <v>45.2625</v>
-      </c>
-      <c r="AF33" s="3">
-        <f t="shared" si="6"/>
-        <v>171.6625</v>
+        <v>171.66250000000002</v>
       </c>
       <c r="AG33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="2"/>
@@ -2544,14 +3315,14 @@
       <c r="AF34" s="3"/>
       <c r="AG34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="17" t="s">
         <v>5</v>
       </c>
       <c r="D35" s="17" t="str">
-        <f t="shared" ref="D35:D37" si="8">$I9</f>
+        <f t="shared" ref="D35:D37" si="6">$I9</f>
         <v>Minimum</v>
       </c>
       <c r="E35" s="3">
@@ -2588,15 +3359,15 @@
       </c>
       <c r="M35" s="3">
         <f t="shared" si="7"/>
-        <v>10.175</v>
+        <v>10.175000000000001</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="7"/>
-        <v>20.35</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="O35" s="3">
         <f t="shared" si="7"/>
-        <v>15.2625</v>
+        <v>15.262500000000001</v>
       </c>
       <c r="P35" s="3">
         <f t="shared" si="7"/>
@@ -2650,100 +3421,100 @@
       <c r="AF35" s="3"/>
       <c r="AG35" s="3"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="17"/>
       <c r="D36" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>Expected</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" ref="E36:Z36" si="8">COUNTIFS(E$24:E$34,$I10) * $F$10</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="3">
         <f t="shared" si="8"/>
-        <v>Expected</v>
-      </c>
-      <c r="E36" s="3">
-        <f t="shared" ref="E36:Z36" si="9">COUNTIFS(E$24:E$34,$I10) * $F$10</f>
         <v>0</v>
       </c>
-      <c r="F36" s="3">
-        <f t="shared" si="9"/>
+      <c r="G36" s="3">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="G36" s="3">
-        <f t="shared" si="9"/>
+      <c r="H36" s="3">
+        <f t="shared" si="8"/>
+        <v>100.875</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="8"/>
+        <v>80.7</v>
+      </c>
+      <c r="J36" s="3">
+        <f t="shared" si="8"/>
+        <v>90.787500000000009</v>
+      </c>
+      <c r="K36" s="3">
+        <f t="shared" si="8"/>
+        <v>90.787500000000009</v>
+      </c>
+      <c r="L36" s="3">
+        <f t="shared" si="8"/>
+        <v>100.875</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="8"/>
+        <v>10.0875</v>
+      </c>
+      <c r="N36" s="3">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H36" s="3">
-        <f t="shared" si="9"/>
+      <c r="O36" s="3">
+        <f t="shared" si="8"/>
+        <v>10.0875</v>
+      </c>
+      <c r="P36" s="3">
+        <f t="shared" si="8"/>
         <v>100.875</v>
       </c>
-      <c r="I36" s="3">
-        <f t="shared" si="9"/>
-        <v>80.7</v>
-      </c>
-      <c r="J36" s="3">
-        <f t="shared" si="9"/>
-        <v>90.7875</v>
-      </c>
-      <c r="K36" s="3">
-        <f t="shared" si="9"/>
-        <v>90.7875</v>
-      </c>
-      <c r="L36" s="3">
-        <f t="shared" si="9"/>
+      <c r="Q36" s="3">
+        <f t="shared" si="8"/>
+        <v>90.787500000000009</v>
+      </c>
+      <c r="R36" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <f t="shared" si="8"/>
         <v>100.875</v>
       </c>
-      <c r="M36" s="3">
-        <f t="shared" si="9"/>
-        <v>10.0875</v>
-      </c>
-      <c r="N36" s="3">
-        <f t="shared" si="9"/>
+      <c r="V36" s="3">
+        <f t="shared" si="8"/>
+        <v>100.875</v>
+      </c>
+      <c r="W36" s="3">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="O36" s="3">
-        <f t="shared" si="9"/>
-        <v>10.0875</v>
-      </c>
-      <c r="P36" s="3">
-        <f t="shared" si="9"/>
-        <v>100.875</v>
-      </c>
-      <c r="Q36" s="3">
-        <f t="shared" si="9"/>
-        <v>90.7875</v>
-      </c>
-      <c r="R36" s="3">
-        <f t="shared" si="9"/>
+      <c r="X36" s="3">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="S36" s="3">
-        <f t="shared" si="9"/>
+      <c r="Y36" s="3">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="T36" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U36" s="3">
-        <f t="shared" si="9"/>
-        <v>100.875</v>
-      </c>
-      <c r="V36" s="3">
-        <f t="shared" si="9"/>
-        <v>100.875</v>
-      </c>
-      <c r="W36" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="X36" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
       <c r="Z36" s="3">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA36" s="3"/>
@@ -2751,119 +3522,119 @@
         <v>11</v>
       </c>
       <c r="AC36" s="17">
-        <f t="shared" ref="AC36:AF36" si="10">SUM(AC24:AC34)</f>
-        <v>401.9125</v>
+        <f t="shared" ref="AC36:AF36" si="9">SUM(AC24:AC34)</f>
+        <v>401.91250000000008</v>
       </c>
       <c r="AD36" s="17">
-        <f t="shared" si="10"/>
-        <v>877.6125</v>
+        <f t="shared" si="9"/>
+        <v>877.61250000000018</v>
       </c>
       <c r="AE36" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>543.15</v>
       </c>
       <c r="AF36" s="17">
-        <f t="shared" si="10"/>
-        <v>1822.675</v>
+        <f t="shared" si="9"/>
+        <v>1822.6749999999997</v>
       </c>
       <c r="AG36" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>Stretch</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" ref="E37:Z37" si="11">COUNTIFS(E$24:E$34,$I11) * $F$11</f>
+        <f t="shared" ref="E37:Z37" si="10">COUNTIFS(E$24:E$34,$I11) * $F$11</f>
         <v>0</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="11"/>
-        <v>30.175</v>
+        <f t="shared" si="10"/>
+        <v>30.175000000000001</v>
       </c>
       <c r="J37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.0875</v>
       </c>
       <c r="K37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.0875</v>
       </c>
       <c r="L37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.0875</v>
       </c>
       <c r="N37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>15.0875</v>
       </c>
       <c r="R37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150.875</v>
       </c>
       <c r="S37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150.875</v>
       </c>
       <c r="T37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>150.875</v>
       </c>
       <c r="U37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z37" s="3">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA37" s="3"/>
@@ -2874,7 +3645,7 @@
       <c r="AF37" s="3"/>
       <c r="AG37" s="3"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="17"/>
@@ -2909,7 +3680,7 @@
       <c r="AF38" s="3"/>
       <c r="AG38" s="3"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="17"/>
@@ -2944,7 +3715,7 @@
       <c r="AF39" s="3"/>
       <c r="AG39" s="3"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="17"/>
@@ -2979,7 +3750,7 @@
       <c r="AF40" s="3"/>
       <c r="AG40" s="3"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="17"/>
@@ -3014,101 +3785,101 @@
       <c r="AF41" s="3"/>
       <c r="AG41" s="3"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>1</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" ref="E42:Z42" si="12">SUM(E35:E37)</f>
+        <f t="shared" ref="E42:Z42" si="11">SUM(E35:E37)</f>
         <v>50.875</v>
       </c>
       <c r="F42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>50.875</v>
       </c>
       <c r="G42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>50.875</v>
       </c>
       <c r="H42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>100.875</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>110.875</v>
       </c>
       <c r="J42" s="3">
-        <f t="shared" si="12"/>
-        <v>105.875</v>
+        <f t="shared" si="11"/>
+        <v>105.87500000000001</v>
       </c>
       <c r="K42" s="3">
-        <f t="shared" si="12"/>
-        <v>105.875</v>
+        <f t="shared" si="11"/>
+        <v>105.87500000000001</v>
       </c>
       <c r="L42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>100.875</v>
       </c>
       <c r="M42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>35.35</v>
       </c>
       <c r="N42" s="3">
-        <f t="shared" si="12"/>
-        <v>20.35</v>
+        <f t="shared" si="11"/>
+        <v>20.350000000000001</v>
       </c>
       <c r="O42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>25.35</v>
       </c>
       <c r="P42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>100.875</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="12"/>
-        <v>105.875</v>
+        <f t="shared" si="11"/>
+        <v>105.87500000000001</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150.875</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150.875</v>
       </c>
       <c r="T42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>150.875</v>
       </c>
       <c r="U42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>100.875</v>
       </c>
       <c r="V42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>100.875</v>
       </c>
       <c r="W42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>50.875</v>
       </c>
       <c r="X42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>50.875</v>
       </c>
       <c r="Y42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>50.875</v>
       </c>
       <c r="Z42" s="3">
-        <f t="shared" si="12"/>
+        <f t="shared" si="11"/>
         <v>50.875</v>
       </c>
       <c r="AA42" s="3"/>
@@ -3119,18 +3890,18 @@
       <c r="AD42" s="17"/>
       <c r="AE42" s="17">
         <f>SUM(E42:Z42)</f>
-        <v>1822.675</v>
+        <v>1822.6750000000002</v>
       </c>
       <c r="AF42" s="17"/>
       <c r="AG42" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D43" s="17" t="s">
         <v>35</v>
@@ -3163,7 +3934,7 @@
       <c r="O43" s="3"/>
       <c r="P43" s="3">
         <f>SUM(O42:P42)</f>
-        <v>126.225</v>
+        <v>126.22499999999999</v>
       </c>
       <c r="Q43" s="3"/>
       <c r="R43" s="3">
@@ -3198,14 +3969,14 @@
       <c r="AD43" s="17"/>
       <c r="AE43" s="17">
         <f>SUM(D43:Z43)</f>
-        <v>1822.675</v>
+        <v>1822.6750000000002</v>
       </c>
       <c r="AF43" s="3"/>
       <c r="AG43" s="17" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -3240,7 +4011,7 @@
       <c r="AF44" s="3"/>
       <c r="AG44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -3275,7 +4046,7 @@
       <c r="AF45" s="3"/>
       <c r="AG45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -3310,17 +4081,17 @@
       <c r="AF46" s="3"/>
       <c r="AG46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:33" ht="46.5" x14ac:dyDescent="0.7">
       <c r="A47" s="3"/>
       <c r="B47" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C47" s="21">
         <f>AE43</f>
-        <v>1822.675</v>
+        <v>1822.6750000000002</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
@@ -3352,7 +4123,7 @@
       <c r="AF47" s="3"/>
       <c r="AG47" s="3"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:33" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -3389,253 +4160,253 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="AF34:AF35 A32:B32 D32 AA32:AG32">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="between">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34:AF35 A32:B32 D32 AA32:AG32">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF34:AF35 A32:B32 D32 AA32:AG32">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:AG20">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="between">
       <formula>$K$10</formula>
       <formula>$K$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A20:AG20">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="39" priority="5" operator="between">
       <formula>$K$9</formula>
       <formula>$K$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:Z37">
-    <cfRule type="cellIs" dxfId="0" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="38" priority="6" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:Z37">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:Z37">
-    <cfRule type="cellIs" dxfId="2" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:D24 C25:C32 AA24:AG24">
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="between">
+    <cfRule type="cellIs" dxfId="35" priority="9" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:D24 C25:C32 AA24:AG24">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="between">
+    <cfRule type="cellIs" dxfId="34" priority="10" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A24:D24 C25:C32 AA24:AG24">
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="33" priority="11" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 D25 AA25:AG25">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="between">
+    <cfRule type="cellIs" dxfId="32" priority="12" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 D25 AA25:AG25">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="between">
+    <cfRule type="cellIs" dxfId="31" priority="13" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A25:B25 D25 AA25:AG25">
-    <cfRule type="cellIs" dxfId="2" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="30" priority="14" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26 D26 AA26:AG26">
-    <cfRule type="cellIs" dxfId="0" priority="15" operator="between">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26 D26 AA26:AG26">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="16" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A26:B26 D26 AA26:AG26">
-    <cfRule type="cellIs" dxfId="2" priority="17" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="17" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 D31 AA31:AG31">
-    <cfRule type="cellIs" dxfId="0" priority="18" operator="between">
+    <cfRule type="cellIs" dxfId="26" priority="18" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 D31 AA31:AG31">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="19" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:B31 D31 AA31:AG31">
-    <cfRule type="cellIs" dxfId="2" priority="20" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="20" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27 D27 AA27:AG27">
-    <cfRule type="cellIs" dxfId="0" priority="21" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="21" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27 D27 AA27:AG27">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A27:B27 D27 AA27:AG27">
-    <cfRule type="cellIs" dxfId="2" priority="23" operator="between">
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 D28 AA28:AG28">
-    <cfRule type="cellIs" dxfId="0" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="24" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 D28 AA28:AG28">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="25" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:B28 D28 AA28:AG28">
-    <cfRule type="cellIs" dxfId="2" priority="26" operator="between">
+    <cfRule type="cellIs" dxfId="18" priority="26" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29 D29 AA29:AG29">
-    <cfRule type="cellIs" dxfId="0" priority="27" operator="between">
+    <cfRule type="cellIs" dxfId="17" priority="27" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29 D29 AA29:AG29">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="28" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:B29 D29 AA29:AG29">
-    <cfRule type="cellIs" dxfId="2" priority="29" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="29" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30 D30 AA30:AG30">
-    <cfRule type="cellIs" dxfId="0" priority="30" operator="between">
+    <cfRule type="cellIs" dxfId="14" priority="30" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30 D30 AA30:AG30">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="31" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:B30 D30 AA30:AG30">
-    <cfRule type="cellIs" dxfId="2" priority="32" operator="between">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33 D33 AA33:AG33">
-    <cfRule type="cellIs" dxfId="0" priority="33" operator="between">
+    <cfRule type="cellIs" dxfId="11" priority="33" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33 D33 AA33:AG33">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="34" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33:B33 D33 AA33:AG33">
-    <cfRule type="cellIs" dxfId="2" priority="35" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="between">
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="37" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="cellIs" dxfId="2" priority="38" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="38" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Z33">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="between">
+    <cfRule type="cellIs" dxfId="5" priority="39" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Z33">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="40" operator="between">
       <formula>$I$10</formula>
       <formula>$I$10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24:Z33">
-    <cfRule type="cellIs" dxfId="2" priority="41" operator="between">
+    <cfRule type="cellIs" dxfId="3" priority="41" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:O33">
-    <cfRule type="cellIs" dxfId="0" priority="42" operator="between">
+    <cfRule type="cellIs" dxfId="2" priority="42" operator="between">
       <formula>$I$11</formula>
       <formula>$I$11</formula>
     </cfRule>
@@ -3647,19 +4418,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:O33">
-    <cfRule type="cellIs" dxfId="2" priority="44" operator="between">
+    <cfRule type="cellIs" dxfId="0" priority="44" operator="between">
       <formula>$I$9</formula>
       <formula>$I$9</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E24:Z33">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E24:Z33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$I$9:$I$12</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:AA20">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A20:AA20" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>$K$9:$K$10</formula1>
     </dataValidation>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>